--- a/va_facility_data_2025-02-20/Sedalia VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sedalia%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sedalia VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sedalia%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R23e952b7664c4481ae53c48afe60d096"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8a1514514c584b069d0893762c7de8f1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc4a03e20fb084d6bbc92e18ffede9fd0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R629172b9c2b3488b8d52db1263d28179"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re1eefbffa3fb48a3996655f1260540b1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R567ac21cc95b44e79e733798ae735a27"/>
   </x:sheets>
 </x:workbook>
 </file>
